--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4071" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1562,6 +1562,10 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:code}
+</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1632,6 +1636,192 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType</t>
+  </si>
+  <si>
+    <t>drowningType</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.id</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>drowning-type</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Drowning type/body of water</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/vs-drowning-type</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningType.referenceRange</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther</t>
+  </si>
+  <si>
+    <t>drowningOther</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.id</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding.code</t>
+  </si>
+  <si>
+    <t>drowning-other</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding.display</t>
+  </si>
+  <si>
+    <t>Drowning other (specify)</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.code.text</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component:drowningOther.referenceRange</t>
   </si>
 </sst>
 </file>
@@ -1959,7 +2149,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1968,9 +2158,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="57.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.64453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1993,7 +2183,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -8604,16 +8794,14 @@
         <v>83</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>490</v>
@@ -8637,10 +8825,10 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8651,10 +8839,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8769,10 +8957,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8889,10 +9077,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9011,10 +9199,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9040,13 +9228,13 @@
         <v>192</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>206</v>
@@ -9098,7 +9286,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>94</v>
@@ -9116,7 +9304,7 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>212</v>
@@ -9133,10 +9321,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9159,16 +9347,16 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>345</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>347</v>
@@ -9220,7 +9408,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9238,7 +9426,7 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>352</v>
@@ -9255,10 +9443,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9284,13 +9472,13 @@
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>361</v>
@@ -9342,7 +9530,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9377,10 +9565,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9464,7 +9652,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9499,10 +9687,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9528,10 +9716,10 @@
         <v>84</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>428</v>
@@ -9586,7 +9774,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9619,8 +9807,5086 @@
         <v>83</v>
       </c>
     </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AC80" s="2"/>
+      <c r="AD80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y81" s="2"/>
+      <c r="Z81" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AC101" s="2"/>
+      <c r="AD101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP105">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9630,7 +14896,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1562,7 +1562,7 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Drowning</t>
+    <t>RS Observation - External Cause: Drowning</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Drowning</t>
+    <t>Road Safety Observation - External Cause: Drowning</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Drowning</t>
+    <t>RS Observation - External Cause: Drowning</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -746,6 +746,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="40947009"/&gt;
+  &lt;display value="Drowning (event)"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -755,378 +762,252 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>40947009</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Drowning (event)</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueBoolean</t>
-  </si>
-  <si>
-    <t>valueBoolean</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
@@ -1136,7 +1017,7 @@
     <t>Specify type/body of water</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/vs-drowning-type</t>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-ExternalCauseofDrowning</t>
   </si>
   <si>
     <t>Observation.value[x]:valueCodeableConcept.id</t>
@@ -1995,7 +1876,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP68"/>
+  <dimension ref="A1:AP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2029,7 +1910,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.30078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.36328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4266,7 +4147,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>83</v>
@@ -4308,7 +4189,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4329,10 +4210,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4343,10 +4224,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4366,19 +4247,23 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4426,7 +4311,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4438,7 +4323,7 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4447,10 +4332,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4459,46 +4344,48 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4534,46 +4421,46 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4581,10 +4468,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4595,7 +4482,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4607,26 +4494,24 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4668,13 +4553,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4689,28 +4574,28 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4720,7 +4605,7 @@
         <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
@@ -4729,18 +4614,20 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4788,7 +4675,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4803,34 +4690,34 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4840,7 +4727,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
@@ -4849,17 +4736,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4869,7 +4758,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4908,7 +4797,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4923,19 +4812,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4943,10 +4832,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4969,18 +4858,18 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4989,7 +4878,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -5028,7 +4917,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5049,13 +4938,13 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5063,10 +4952,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5077,7 +4966,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -5089,19 +4978,17 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5150,13 +5037,13 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -5165,19 +5052,19 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5185,10 +5072,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5211,19 +5098,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5260,19 +5147,17 @@
         <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5281,7 +5166,7 @@
         <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>106</v>
@@ -5290,41 +5175,43 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>83</v>
@@ -5333,19 +5220,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5394,7 +5281,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5403,38 +5290,40 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5443,10 +5332,10 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
@@ -5455,18 +5344,20 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5490,13 +5381,11 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5514,16 +5403,16 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5532,31 +5421,31 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>310</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5566,29 +5455,25 @@
         <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5636,7 +5521,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5648,69 +5533,67 @@
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>316</v>
+        <v>139</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5746,46 +5629,46 @@
         <v>83</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5793,10 +5676,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5807,7 +5690,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -5819,18 +5702,20 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5878,13 +5763,13 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>83</v>
@@ -5899,24 +5784,24 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5927,10 +5812,10 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>83</v>
@@ -5939,17 +5824,19 @@
         <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5959,7 +5846,7 @@
         <v>83</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>83</v>
@@ -5998,13 +5885,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -6013,19 +5900,19 @@
         <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -6033,10 +5920,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6056,22 +5943,22 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>344</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6096,29 +5983,31 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6127,7 +6016,7 @@
         <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>106</v>
@@ -6136,40 +6025,38 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -6178,22 +6065,22 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6218,13 +6105,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>83</v>
+        <v>345</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6242,16 +6129,16 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>106</v>
@@ -6260,31 +6147,29 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM35" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>83</v>
       </c>
@@ -6293,31 +6178,31 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6342,11 +6227,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6364,16 +6251,16 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>106</v>
@@ -6382,27 +6269,27 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>354</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6425,15 +6312,17 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>218</v>
+        <v>360</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6458,13 +6347,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>83</v>
+        <v>363</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6482,7 +6371,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>220</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6494,44 +6383,44 @@
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>83</v>
+        <v>365</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>83</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>83</v>
@@ -6543,18 +6432,20 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>141</v>
+        <v>370</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>223</v>
+        <v>371</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6578,43 +6469,43 @@
         <v>83</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6623,10 +6514,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6637,10 +6528,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6651,7 +6542,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6660,23 +6551,21 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>381</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6724,13 +6613,13 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>234</v>
+        <v>378</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
@@ -6742,27 +6631,27 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>235</v>
+        <v>384</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>83</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6776,29 +6665,27 @@
         <v>94</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6807,7 +6694,7 @@
         <v>83</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>369</v>
+        <v>83</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>83</v>
@@ -6846,7 +6733,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6864,27 +6751,27 @@
         <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>83</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6895,7 +6782,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -6907,19 +6794,19 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6944,13 +6831,13 @@
         <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -6968,19 +6855,19 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
@@ -6989,10 +6876,10 @@
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>137</v>
+        <v>403</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7003,21 +6890,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>381</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7029,20 +6916,16 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>218</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7066,13 +6949,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7090,49 +6973,49 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>388</v>
+        <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>390</v>
+        <v>221</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7151,20 +7034,18 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>393</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>394</v>
+        <v>141</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>395</v>
+        <v>223</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7212,7 +7093,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>392</v>
+        <v>227</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7224,7 +7105,7 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7233,10 +7114,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>399</v>
+        <v>221</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7247,44 +7128,46 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7308,13 +7191,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7332,45 +7215,45 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>406</v>
+        <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>408</v>
+        <v>137</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>409</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7393,20 +7276,16 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>192</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7430,13 +7309,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>416</v>
+        <v>83</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7454,7 +7333,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7463,7 +7342,7 @@
         <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>106</v>
@@ -7515,17 +7394,15 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7583,7 +7460,7 @@
         <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>106</v>
@@ -7592,27 +7469,27 @@
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>427</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7635,18 +7512,20 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7670,13 +7549,13 @@
         <v>83</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>83</v>
+        <v>428</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>83</v>
@@ -7694,7 +7573,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7712,27 +7591,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>435</v>
+        <v>349</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7755,19 +7634,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>438</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7792,13 +7671,13 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>83</v>
+        <v>437</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7816,7 +7695,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7828,19 +7707,19 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>443</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>445</v>
+        <v>349</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7851,10 +7730,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7877,16 +7756,18 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>218</v>
+        <v>441</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>219</v>
+        <v>442</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7934,7 +7815,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7946,7 +7827,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -7958,7 +7839,7 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7969,21 +7850,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -7995,17 +7876,15 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8054,19 +7933,19 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8075,10 +7954,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>221</v>
+        <v>448</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8089,14 +7968,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>449</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8109,26 +7988,24 @@
         <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8176,7 +8053,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8188,7 +8065,7 @@
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8197,10 +8074,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>83</v>
+        <v>454</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>137</v>
+        <v>455</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8211,10 +8088,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8225,7 +8102,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8234,18 +8111,20 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8294,16 +8173,16 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>106</v>
@@ -8315,10 +8194,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8329,10 +8208,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8343,7 +8222,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8352,19 +8231,23 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8412,16 +8295,16 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>106</v>
@@ -8433,10 +8316,10 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8447,10 +8330,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8473,20 +8356,16 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>465</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8510,13 +8389,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>469</v>
+        <v>83</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>470</v>
+        <v>83</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8534,7 +8413,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>464</v>
+        <v>220</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8546,19 +8425,19 @@
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>472</v>
+        <v>83</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>390</v>
+        <v>221</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8569,14 +8448,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8595,20 +8474,18 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>474</v>
+        <v>141</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>475</v>
+        <v>223</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>83</v>
       </c>
@@ -8632,13 +8509,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>478</v>
+        <v>83</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>479</v>
+        <v>83</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8656,7 +8533,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>227</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8668,19 +8545,19 @@
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>471</v>
+        <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>472</v>
+        <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>390</v>
+        <v>221</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8691,43 +8568,45 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>481</v>
+        <v>140</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>484</v>
+        <v>149</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8776,19 +8655,19 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8800,7 +8679,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>485</v>
+        <v>137</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8811,10 +8690,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8822,7 +8701,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>94</v>
@@ -8834,19 +8713,23 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8870,13 +8753,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8894,10 +8777,10 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>94</v>
@@ -8912,16 +8795,16 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>83</v>
+        <v>476</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>458</v>
+        <v>212</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>489</v>
+        <v>213</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -8929,10 +8812,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8943,7 +8826,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -8955,18 +8838,20 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>491</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>493</v>
+        <v>304</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -9014,13 +8899,13 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>83</v>
@@ -9032,27 +8917,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>495</v>
+        <v>310</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>496</v>
+        <v>311</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9063,7 +8948,7 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -9072,21 +8957,23 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>498</v>
+        <v>192</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
       </c>
@@ -9110,13 +8997,13 @@
         <v>83</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -9134,16 +9021,16 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9155,10 +9042,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>495</v>
+        <v>137</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>502</v>
+        <v>338</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9169,14 +9056,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9192,22 +9079,22 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>438</v>
+        <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>504</v>
+        <v>341</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>505</v>
+        <v>342</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>506</v>
+        <v>343</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>507</v>
+        <v>344</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9232,13 +9119,13 @@
         <v>83</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>83</v>
+        <v>334</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>83</v>
+        <v>345</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -9256,7 +9143,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9274,27 +9161,27 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>508</v>
+        <v>348</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>509</v>
+        <v>349</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9305,7 +9192,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>83</v>
@@ -9317,16 +9204,20 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>218</v>
+        <v>487</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9374,19 +9265,19 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>220</v>
+        <v>486</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>83</v>
@@ -9395,872 +9286,20 @@
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>221</v>
+        <v>404</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP68" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP68">
+  <autoFilter ref="A1:AP61">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10270,7 +9309,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4147,10 +4147,10 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -748,6 +748,7 @@
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;version value="http://snomed.info/sct/900000000000207008/version/20241001"/&gt;
   &lt;code value="40947009"/&gt;
   &lt;display value="Drowning (event)"/&gt;
 &lt;/valueCoding&gt;</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3741,7 +3741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-ec-drowning.xlsx
+++ b/StructureDefinition-rs-observation-ec-drowning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
